--- a/Story/3 - Psyche Deepdive/9 - The Fall of Giant/The Fall of Giant.xlsx
+++ b/Story/3 - Psyche Deepdive/9 - The Fall of Giant/The Fall of Giant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theda\Documents\GitHub\morimens-volunteer-coordination\Story\3 - Psyche Deepdive\9 - The Fall of Giant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EA4773-8F4C-4F25-899E-F7B85773735D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BD15E8-C642-48F5-AEF2-D860BE4F0F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="17325" windowHeight="16305" xr2:uid="{5A0A802C-1DE5-4B8B-B3C2-3BC85B6F9B5E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5A0A802C-1DE5-4B8B-B3C2-3BC85B6F9B5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Goliath Deepdive" sheetId="1" r:id="rId1"/>
@@ -9788,9 +9788,6 @@
     <t>無限の海、烈日、追放されたフィリスタインの英雄と彼の唯一の従者。\nこれは「没落」の物語である。</t>
   </si>
   <si>
-    <t>무한한 바다, 뜨거운 태양, 유배된 필리스티 영웅과 그의 유일한 수행원. \n이는 “추락”에 관한 이야기입니다.</t>
-  </si>
-  <si>
     <t>Océan infini, soleil brûlant, héros philistin exilé et son unique compagnon.\nC'est une histoire de « chute »</t>
   </si>
   <si>
@@ -10104,13 +10101,16 @@
   </si>
   <si>
     <t>Stage_43509_Name</t>
+  </si>
+  <si>
+    <t>끝없는 바다, 뜨거운 태양, 유배된 블레셋 영웅과 그의 유일한 수행원.\n이것은 '추락'에 관한 이야기다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10132,6 +10132,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -10157,10 +10163,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -10174,9 +10181,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{20703964-C6BE-44E7-9A3A-0381E2DEB0E3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -10392,7 +10403,7 @@
   <dimension ref="A1:S266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10490,7 +10501,7 @@
       <c r="L2" t="s">
         <v>3231</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="5" t="s">
         <v>3232</v>
       </c>
       <c r="N2" t="s">
@@ -10546,34 +10557,34 @@
       <c r="L3" t="s">
         <v>3246</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="5" t="s">
+        <v>3352</v>
+      </c>
+      <c r="N3" t="s">
         <v>3247</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>3248</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>3249</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>3250</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>3251</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>3252</v>
-      </c>
-      <c r="S3" t="s">
-        <v>3253</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B4" t="s">
         <v>3254</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3255</v>
       </c>
       <c r="C4" t="s">
         <v>3224</v>
@@ -10585,51 +10596,51 @@
         <v>3225</v>
       </c>
       <c r="F4" t="s">
+        <v>3255</v>
+      </c>
+      <c r="H4" t="s">
         <v>3256</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>3257</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>3258</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>3259</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>3260</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" s="5" t="s">
         <v>3261</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>3262</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>3263</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>3264</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>3265</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>3266</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>3267</v>
-      </c>
-      <c r="S4" t="s">
-        <v>3268</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>3268</v>
+      </c>
+      <c r="B5" t="s">
         <v>3269</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3270</v>
       </c>
       <c r="C5" t="s">
         <v>3224</v>
@@ -10658,7 +10669,7 @@
       <c r="L5" t="s">
         <v>3231</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="5" t="s">
         <v>3232</v>
       </c>
       <c r="N5" t="s">
@@ -10682,10 +10693,10 @@
     </row>
     <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B6" t="s">
         <v>3271</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3272</v>
       </c>
       <c r="C6" t="s">
         <v>3224</v>
@@ -10714,34 +10725,34 @@
       <c r="L6" t="s">
         <v>3246</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="5" t="s">
+        <v>3352</v>
+      </c>
+      <c r="N6" t="s">
         <v>3247</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>3248</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>3249</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>3250</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>3251</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>3252</v>
-      </c>
-      <c r="S6" t="s">
-        <v>3253</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>3272</v>
+      </c>
+      <c r="B7" t="s">
         <v>3273</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3274</v>
       </c>
       <c r="C7" t="s">
         <v>3224</v>
@@ -10753,51 +10764,51 @@
         <v>3225</v>
       </c>
       <c r="F7" t="s">
+        <v>3255</v>
+      </c>
+      <c r="H7" t="s">
         <v>3256</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>3257</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>3258</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>3259</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>3260</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" s="5" t="s">
         <v>3261</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>3262</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>3263</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>3264</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>3265</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>3266</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>3267</v>
-      </c>
-      <c r="S7" t="s">
-        <v>3268</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>3274</v>
+      </c>
+      <c r="B8" t="s">
         <v>3275</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3276</v>
       </c>
       <c r="C8" t="s">
         <v>3224</v>
@@ -10826,7 +10837,7 @@
       <c r="L8" t="s">
         <v>3231</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="5" t="s">
         <v>3232</v>
       </c>
       <c r="N8" t="s">
@@ -10850,10 +10861,10 @@
     </row>
     <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>3276</v>
+      </c>
+      <c r="B9" t="s">
         <v>3277</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3278</v>
       </c>
       <c r="C9" t="s">
         <v>3224</v>
@@ -10882,34 +10893,34 @@
       <c r="L9" t="s">
         <v>3246</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="5" t="s">
+        <v>3352</v>
+      </c>
+      <c r="N9" t="s">
         <v>3247</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>3248</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>3249</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>3250</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>3251</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>3252</v>
-      </c>
-      <c r="S9" t="s">
-        <v>3253</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B10" t="s">
         <v>3279</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3280</v>
       </c>
       <c r="C10" t="s">
         <v>3224</v>
@@ -10921,61 +10932,61 @@
         <v>3225</v>
       </c>
       <c r="F10" t="s">
+        <v>3255</v>
+      </c>
+      <c r="H10" t="s">
         <v>3256</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>3257</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>3258</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>3259</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>3260</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" s="5" t="s">
         <v>3261</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>3262</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>3263</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>3264</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>3265</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>3266</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>3267</v>
-      </c>
-      <c r="S10" t="s">
-        <v>3268</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>3280</v>
+      </c>
+      <c r="B12" t="s">
         <v>3281</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>3282</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3283</v>
       </c>
       <c r="D12">
         <v>1780</v>
       </c>
       <c r="E12" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="F12" t="s">
         <v>3226</v>
@@ -10984,7 +10995,7 @@
         <v>3200</v>
       </c>
       <c r="I12" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
       <c r="J12" t="s">
         <v>3198</v>
@@ -11019,58 +11030,58 @@
     </row>
     <row r="13" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B13" t="s">
         <v>3286</v>
       </c>
-      <c r="B13" t="s">
-        <v>3287</v>
-      </c>
       <c r="C13" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="D13">
         <v>1780</v>
       </c>
       <c r="E13" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="F13" t="s">
         <v>3241</v>
       </c>
       <c r="H13" t="s">
+        <v>3287</v>
+      </c>
+      <c r="I13" t="s">
         <v>3288</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>3289</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>3290</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>3291</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>3292</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>3293</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>3294</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>3295</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>3296</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>3297</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>3298</v>
-      </c>
-      <c r="S13" t="s">
-        <v>3299</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15319,338 +15330,338 @@
     </row>
     <row r="88" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="B88" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="C88" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="D88">
         <v>1781</v>
       </c>
       <c r="E88" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="F88" t="s">
         <v>3226</v>
       </c>
       <c r="H88" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="I88" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="J88" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="K88" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="L88" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="M88" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="N88" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="O88" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P88" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="Q88" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="R88" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="S88" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="89" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="B89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="C89" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="D89">
         <v>1781</v>
       </c>
       <c r="E89" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="F89" t="s">
         <v>3241</v>
       </c>
       <c r="H89" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="I89" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="J89" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="K89" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="L89" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="M89" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="N89" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="O89" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="P89" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="Q89" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="R89" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="S89" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="90" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="B90" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="C90" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="D90">
         <v>1783</v>
       </c>
       <c r="E90" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="F90" t="s">
         <v>3226</v>
       </c>
       <c r="H90" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="I90" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="J90" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="K90" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="L90" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="M90" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="N90" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="O90" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P90" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="Q90" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="R90" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="S90" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="91" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="B91" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="C91" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="D91">
         <v>1783</v>
       </c>
       <c r="E91" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="F91" t="s">
         <v>3241</v>
       </c>
       <c r="H91" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="I91" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="J91" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="K91" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="L91" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="M91" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="N91" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="O91" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="P91" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="Q91" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="R91" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="S91" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="92" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="B92" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="C92" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="D92">
         <v>1784</v>
       </c>
       <c r="E92" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="F92" t="s">
         <v>3226</v>
       </c>
       <c r="H92" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="I92" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="J92" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="K92" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="L92" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="M92" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="N92" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="O92" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P92" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="Q92" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="R92" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="S92" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="93" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="B93" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="C93" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="D93">
         <v>1784</v>
       </c>
       <c r="E93" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="F93" t="s">
         <v>3241</v>
       </c>
       <c r="H93" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="I93" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="J93" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="K93" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="L93" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="M93" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="N93" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="O93" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="P93" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="Q93" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="R93" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="S93" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="94" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21539,19 +21550,19 @@
     </row>
     <row r="198" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="B198" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="C198" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="D198">
         <v>1782</v>
       </c>
       <c r="E198" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="F198" t="s">
         <v>3226</v>
@@ -21560,7 +21571,7 @@
         <v>902</v>
       </c>
       <c r="I198" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J198" t="s">
         <v>900</v>
@@ -21595,58 +21606,58 @@
     </row>
     <row r="199" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="B199" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="C199" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="D199">
         <v>1782</v>
       </c>
       <c r="E199" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="F199" t="s">
         <v>3241</v>
       </c>
       <c r="H199" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="I199" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="J199" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="K199" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="L199" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="M199" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="N199" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="O199" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="P199" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="Q199" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="R199" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="S199" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="200" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
